--- a/Approfondimento - Security/Questionnaire.xlsx
+++ b/Approfondimento - Security/Questionnaire.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8923F2D6-F958-435C-81DF-1FB424157ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FAD863-CA5F-4C2A-84AE-0E4214BE1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D73829A1-5E8A-42D6-8000-80E54553380D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$1,Sheet1!$A$15:$F$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,15 +120,6 @@
 Attack</t>
   </si>
   <si>
-    <t>Does the system support the identification of actors through user IDs, access codes, IP addresses, protocols, port, etc.?</t>
-  </si>
-  <si>
-    <t>Does the system support the authentication of actors via, for example, passwords, digital certificates, 2FA, or biometrics?</t>
-  </si>
-  <si>
-    <t>Does the system support the authorization of actors, ensuring, that an authenticated actor has the right access and modify either data or services?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Does the system support the </t>
     </r>
@@ -177,43 +172,374 @@
     </r>
   </si>
   <si>
-    <t>Does the system support limiting access to computer resources via restricting the number of access points to the resources, or restricting the thype of traffic that can go through the access points?</t>
-  </si>
-  <si>
-    <t>Does the system support limiting exposure by reducing the amount of data or services that can be accessed through a single access point?</t>
-  </si>
-  <si>
-    <t>Does the system support data encryption, for data in transit or data at rest?</t>
-  </si>
-  <si>
-    <t>Does the system design consider the separation of entitites via physical separation on different servers attached to different networks, virtual machines, or an "air gap"?</t>
-  </si>
-  <si>
-    <t>Does the system support changing credential settings, forcing the user to change those settings periodically or at critical events?</t>
-  </si>
-  <si>
-    <t>Does the system validate input in a consistent, system-wide way-for example, using a security framework or validation class to perform actions such as filtering, canonicalization, and sanitization of external input?</t>
-  </si>
-  <si>
     <t>Reacting to Attacks</t>
   </si>
   <si>
-    <t>Does the system support revoking access by limiting access to sensitive resources, even for normally legitimate users and uses if an attack is under way?</t>
-  </si>
-  <si>
-    <t>Does the system support restricting login in instances such as multiple failed login attempts?</t>
-  </si>
-  <si>
-    <t>Does the system support informing actors such as operators, other personnel, or cooperating systems when the system has detected an attack?</t>
-  </si>
-  <si>
     <t>Recovering from Attacks</t>
   </si>
   <si>
-    <t>Does the system support maintaning an audit trail to help trace the actions of, and to identify, an attacker?</t>
-  </si>
-  <si>
-    <t>Does the system guarantee the property of nonrepudiation, which guarantees that the sender of a message cannot later deny having sent the message and that the recipient cannot deny having received the message?</t>
+    <r>
+      <t xml:space="preserve">Does the system support the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identification of actors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through user IDs, access codes, IP addresses, protocols, port, etc.?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authentication of actors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> via, for example, passwords, digital certificates, 2FA, or biometrics?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authorization of actors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ensuring, that an authenticated actor has the right access and modify either data or services?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Does the system support</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> limiting access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to computer resources via restricting the number of access points to the resources, or restricting the type of traffic that can go through the access points?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>limiting exposure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by reducing the amount of data or services that can be accessed through a single access point?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data encryption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, for data in transit or data at rest?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system design consider the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separation of entitites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> via physical separation on different servers attached to different networks, virtual machines, or an "air gap"?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changing credential settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, forcing the user to change those settings periodically or at critical events?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Does the system</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> validate input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a consistent, system-wide way-for example, using a security framework or validation class to perform actions such as filtering, canonicalization, and sanitization of external input?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>revoking access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by limiting access to sensitive resources, even for normally legitimate users and uses if an attack is under way?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restricting login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in instances such as multiple failed login attempts?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>support informing actors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> such as operators, other personnel, or cooperating systems when the system has detected an attack?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system support maintaning an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>audit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trail to help trace the actions of, and to identify, an attacker?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the system guarantee the property of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nonrepudiation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which guarantees that the sender of a message cannot later deny having sent the message and that the recipient cannot deny having received the message?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -258,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -281,42 +607,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,16 +992,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CF90E0-B2DD-49D8-8CF1-49BF57179D14}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="108.28515625" customWidth="1"/>
+    <col min="2" max="2" width="119.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
@@ -669,192 +1032,192 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -864,6 +1227,20 @@
     <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="62" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D9BF98-D79C-4E64-B58E-9BE0BD539198}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>